--- a/Code/Results/Cases/Case_0_108/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_108/res_line/pl_mw.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1394519483217778</v>
+        <v>0.3178392843478832</v>
       </c>
       <c r="D2">
-        <v>0.02487532101274725</v>
+        <v>0.072975931845086</v>
       </c>
       <c r="E2">
-        <v>0.02922805270889772</v>
+        <v>0.1152519610375153</v>
       </c>
       <c r="F2">
-        <v>1.834073202039065</v>
+        <v>2.663086912965028</v>
       </c>
       <c r="G2">
-        <v>0.0007850612103222225</v>
+        <v>0.002528166556933808</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.04106450437200859</v>
+        <v>0.1801976948892259</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.05080669861606069</v>
+        <v>0.1004363845456098</v>
       </c>
       <c r="M2">
-        <v>3.296787719552484</v>
+        <v>1.795126779606832</v>
       </c>
       <c r="N2">
-        <v>3.753305746477565</v>
+        <v>1.770456784104312</v>
       </c>
       <c r="O2">
-        <v>5.767422451054642</v>
+        <v>7.650565837941315</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1329929272977068</v>
+        <v>0.3191506642733657</v>
       </c>
       <c r="D3">
-        <v>0.02503953745022525</v>
+        <v>0.07323142302829844</v>
       </c>
       <c r="E3">
-        <v>0.03105661177784258</v>
+        <v>0.1165783141418422</v>
       </c>
       <c r="F3">
-        <v>1.669759973595248</v>
+        <v>2.64674256577392</v>
       </c>
       <c r="G3">
-        <v>0.0007927754086631265</v>
+        <v>0.00253329629916117</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.04451829536822771</v>
+        <v>0.1828342323282115</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.04956482755280334</v>
+        <v>0.1002543018401951</v>
       </c>
       <c r="M3">
-        <v>2.882941345161512</v>
+        <v>1.669526507629953</v>
       </c>
       <c r="N3">
-        <v>3.356284997618559</v>
+        <v>1.641295309442739</v>
       </c>
       <c r="O3">
-        <v>5.214485771044508</v>
+        <v>7.583767025111797</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1293652100622324</v>
+        <v>0.3201237289109287</v>
       </c>
       <c r="D4">
-        <v>0.02515481390797714</v>
+        <v>0.07339847739880945</v>
       </c>
       <c r="E4">
-        <v>0.03224361308776902</v>
+        <v>0.1174366614359648</v>
       </c>
       <c r="F4">
-        <v>1.572943262222736</v>
+        <v>2.638315273754941</v>
       </c>
       <c r="G4">
-        <v>0.0007976500098856756</v>
+        <v>0.002536614178842142</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.04679240512518046</v>
+        <v>0.1845423758235372</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.04881424786761102</v>
+        <v>0.1001560439589042</v>
       </c>
       <c r="M4">
-        <v>2.629188288029198</v>
+        <v>1.592429172857464</v>
       </c>
       <c r="N4">
-        <v>3.113398884155828</v>
+        <v>1.562278028786039</v>
       </c>
       <c r="O4">
-        <v>4.887677917627173</v>
+        <v>7.547513017343249</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1279659898477092</v>
+        <v>0.320562408484804</v>
       </c>
       <c r="D5">
-        <v>0.025205270449705</v>
+        <v>0.07346911763896991</v>
       </c>
       <c r="E5">
-        <v>0.03274297306756435</v>
+        <v>0.1177974964592072</v>
       </c>
       <c r="F5">
-        <v>1.534422320290005</v>
+        <v>2.63528441333608</v>
       </c>
       <c r="G5">
-        <v>0.0007996724786822086</v>
+        <v>0.002538008678222947</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.04775588975447853</v>
+        <v>0.1852608790122128</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.0485114222302947</v>
+        <v>0.1001194357085247</v>
       </c>
       <c r="M5">
-        <v>2.525835975437317</v>
+        <v>1.561019502537576</v>
       </c>
       <c r="N5">
-        <v>3.014619888383493</v>
+        <v>1.530154126625064</v>
       </c>
       <c r="O5">
-        <v>4.757397611945635</v>
+        <v>7.533932754563978</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1277382628051811</v>
+        <v>0.3206377946399215</v>
       </c>
       <c r="D6">
-        <v>0.02521385478950799</v>
+        <v>0.07348100238717947</v>
       </c>
       <c r="E6">
-        <v>0.03282682206305676</v>
+        <v>0.1178580802434017</v>
       </c>
       <c r="F6">
-        <v>1.528079737722152</v>
+        <v>2.634805470490974</v>
       </c>
       <c r="G6">
-        <v>0.0008000105208298313</v>
+        <v>0.002538242801178118</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.04791804515875153</v>
+        <v>0.1853815390908151</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.04846132319215712</v>
+        <v>0.1001135650670442</v>
       </c>
       <c r="M6">
-        <v>2.50867674755365</v>
+        <v>1.555804519556489</v>
       </c>
       <c r="N6">
-        <v>2.998229085617368</v>
+        <v>1.524824696000024</v>
       </c>
       <c r="O6">
-        <v>4.735931376527617</v>
+        <v>7.531749745222044</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1293460269241251</v>
+        <v>0.3201294745271497</v>
       </c>
       <c r="D7">
-        <v>0.02515548047964433</v>
+        <v>0.07339941968913166</v>
       </c>
       <c r="E7">
-        <v>0.03225028493011362</v>
+        <v>0.117441483040118</v>
       </c>
       <c r="F7">
-        <v>1.572420094734142</v>
+        <v>2.638272766872461</v>
       </c>
       <c r="G7">
-        <v>0.0007976771380134204</v>
+        <v>0.002536632813474708</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.04680525247347234</v>
+        <v>0.1845519750737381</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.04881015148463064</v>
+        <v>0.1001555363124425</v>
       </c>
       <c r="M7">
-        <v>2.62779426573718</v>
+        <v>1.592005534661851</v>
       </c>
       <c r="N7">
-        <v>3.112065939744724</v>
+        <v>1.561844480722954</v>
       </c>
       <c r="O7">
-        <v>4.885909558991216</v>
+        <v>7.547325041364331</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.137150991159757</v>
+        <v>0.3182565665212564</v>
       </c>
       <c r="D8">
-        <v>0.02492884725901856</v>
+        <v>0.0730619143608191</v>
       </c>
       <c r="E8">
-        <v>0.02984488675153907</v>
+        <v>0.1157001618772682</v>
       </c>
       <c r="F8">
-        <v>1.776515537389997</v>
+        <v>2.657116941621595</v>
       </c>
       <c r="G8">
-        <v>0.0007876932354814853</v>
+        <v>0.002529900468343256</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.04222238367531439</v>
+        <v>0.1810882187743363</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.05037604815594321</v>
+        <v>0.1003708081892576</v>
       </c>
       <c r="M8">
-        <v>3.153999055259092</v>
+        <v>1.751816839365901</v>
       </c>
       <c r="N8">
-        <v>3.6162138649577</v>
+        <v>1.725864252790785</v>
       </c>
       <c r="O8">
-        <v>5.573948689828114</v>
+        <v>7.626543305582743</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.1554312851381781</v>
+        <v>0.3159189761081507</v>
       </c>
       <c r="D9">
-        <v>0.02460692753298233</v>
+        <v>0.07248067573396089</v>
       </c>
       <c r="E9">
-        <v>0.02566220211026171</v>
+        <v>0.1126343243505568</v>
       </c>
       <c r="F9">
-        <v>2.213589500425684</v>
+        <v>2.706884802377488</v>
       </c>
       <c r="G9">
-        <v>0.0007691452715528184</v>
+        <v>0.002518026453715672</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.03454168431785831</v>
+        <v>0.1750057739647204</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.05353991519069723</v>
+        <v>0.100899247335839</v>
       </c>
       <c r="M9">
-        <v>4.190454609146158</v>
+        <v>2.065278440517147</v>
       </c>
       <c r="N9">
-        <v>4.613129062905443</v>
+        <v>2.049647962062863</v>
       </c>
       <c r="O9">
-        <v>7.038655603795405</v>
+        <v>7.819846092821649</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.1711232262592546</v>
+        <v>0.3150202932058761</v>
       </c>
       <c r="D10">
-        <v>0.02445794011831381</v>
+        <v>0.07210253088702601</v>
       </c>
       <c r="E10">
-        <v>0.02295125524922836</v>
+        <v>0.1105945755317401</v>
       </c>
       <c r="F10">
-        <v>2.564185432182285</v>
+        <v>2.751344950762245</v>
       </c>
       <c r="G10">
-        <v>0.0007560461888626908</v>
+        <v>0.002510103189029625</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.02982921916524006</v>
+        <v>0.1709716295199426</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.05591952210497908</v>
+        <v>0.1013508132440535</v>
       </c>
       <c r="M10">
-        <v>4.957649073584065</v>
+        <v>2.295511574237366</v>
       </c>
       <c r="N10">
-        <v>5.352624457447916</v>
+        <v>2.288667306981893</v>
       </c>
       <c r="O10">
-        <v>8.207976808751937</v>
+        <v>7.985285183608937</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.1788658005536092</v>
+        <v>0.3147903178363549</v>
       </c>
       <c r="D11">
-        <v>0.02441268896484505</v>
+        <v>0.07194106674031264</v>
       </c>
       <c r="E11">
-        <v>0.02180547256342225</v>
+        <v>0.1097128377549836</v>
       </c>
       <c r="F11">
-        <v>2.731867263069915</v>
+        <v>2.773304336917562</v>
       </c>
       <c r="G11">
-        <v>0.0007501765006863342</v>
+        <v>0.00250667059357812</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.02792093303963483</v>
+        <v>0.1692311588027184</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.05701375311857149</v>
+        <v>0.1015696846022109</v>
       </c>
       <c r="M11">
-        <v>5.308679019747558</v>
+        <v>2.40021427016336</v>
       </c>
       <c r="N11">
-        <v>5.69108375468835</v>
+        <v>2.397616382568685</v>
       </c>
       <c r="O11">
-        <v>8.765982843793495</v>
+        <v>8.065696131948584</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.1818952696127667</v>
+        <v>0.3147290339363451</v>
       </c>
       <c r="D12">
-        <v>0.02439915128167858</v>
+        <v>0.0718814385405393</v>
       </c>
       <c r="E12">
-        <v>0.02138499488614753</v>
+        <v>0.1093855869730316</v>
       </c>
       <c r="F12">
-        <v>2.796712342456033</v>
+        <v>2.781870567931065</v>
       </c>
       <c r="G12">
-        <v>0.0007479642431911145</v>
+        <v>0.002505395306800095</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.02723533407146839</v>
+        <v>0.1685857411887426</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.05742977385561332</v>
+        <v>0.1016544729611724</v>
       </c>
       <c r="M12">
-        <v>5.441970690931328</v>
+        <v>2.439855629538101</v>
       </c>
       <c r="N12">
-        <v>5.819591668770443</v>
+        <v>2.438900644764658</v>
       </c>
       <c r="O12">
-        <v>8.981589110824018</v>
+        <v>8.096891178801854</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.1812382991011106</v>
+        <v>0.314741083554722</v>
       </c>
       <c r="D13">
-        <v>0.02440190044538859</v>
+        <v>0.07189421321943357</v>
       </c>
       <c r="E13">
-        <v>0.02147494198162514</v>
+        <v>0.1094557706652022</v>
       </c>
       <c r="F13">
-        <v>2.782683936983233</v>
+        <v>2.780014506379416</v>
       </c>
       <c r="G13">
-        <v>0.0007484402675024714</v>
+        <v>0.002505668872244717</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.02738128899761705</v>
+        <v>0.168724135114811</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.05734010294593617</v>
+        <v>0.1016361279198357</v>
       </c>
       <c r="M13">
-        <v>5.413246477589013</v>
+        <v>2.431318520730912</v>
       </c>
       <c r="N13">
-        <v>5.791899274607886</v>
+        <v>2.430008171035752</v>
       </c>
       <c r="O13">
-        <v>8.934953604616226</v>
+        <v>8.090139556180532</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.1791130169119555</v>
+        <v>0.3147847583511094</v>
       </c>
       <c r="D14">
-        <v>0.0244115008212562</v>
+        <v>0.07193613075200211</v>
       </c>
       <c r="E14">
-        <v>0.02177060590419133</v>
+        <v>0.1096857814349279</v>
       </c>
       <c r="F14">
-        <v>2.737174053936741</v>
+        <v>2.774004054186406</v>
       </c>
       <c r="G14">
-        <v>0.0007499943017249544</v>
+        <v>0.002506565183287404</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.02786376689709869</v>
+        <v>0.1691777858591816</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.05704794628532994</v>
+        <v>0.1015766221410743</v>
       </c>
       <c r="M14">
-        <v>5.319637253127098</v>
+        <v>2.403475750188022</v>
       </c>
       <c r="N14">
-        <v>5.701649076893091</v>
+        <v>2.401012331469985</v>
       </c>
       <c r="O14">
-        <v>8.783631286140917</v>
+        <v>8.068247607958313</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.1778242575075808</v>
+        <v>0.3148148732767169</v>
       </c>
       <c r="D15">
-        <v>0.02441786161492576</v>
+        <v>0.07196200362600358</v>
       </c>
       <c r="E15">
-        <v>0.02195348038671563</v>
+        <v>0.1098275351587272</v>
       </c>
       <c r="F15">
-        <v>2.7094788168082</v>
+        <v>2.770355164752004</v>
       </c>
       <c r="G15">
-        <v>0.0007509474809529967</v>
+        <v>0.002507117394562</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.02816422070091207</v>
+        <v>0.1694574404539555</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.05686920722155975</v>
+        <v>0.1015404205958355</v>
       </c>
       <c r="M15">
-        <v>5.262348665184419</v>
+        <v>2.386420220221851</v>
       </c>
       <c r="N15">
-        <v>5.646414002774975</v>
+        <v>2.383255028525923</v>
       </c>
       <c r="O15">
-        <v>8.691519726083357</v>
+        <v>8.0549353297896</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.1706302712003094</v>
+        <v>0.3150389286610107</v>
       </c>
       <c r="D16">
-        <v>0.02446137992749264</v>
+        <v>0.07211329508836428</v>
       </c>
       <c r="E16">
-        <v>0.02302796369666282</v>
+        <v>0.1106531285268457</v>
       </c>
       <c r="F16">
-        <v>2.553405923428784</v>
+        <v>2.749944861823963</v>
       </c>
       <c r="G16">
-        <v>0.000756431385854127</v>
+        <v>0.002510330961777378</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.0299589311526951</v>
+        <v>0.1710872825134437</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.05584824514330933</v>
+        <v>0.1013367777886387</v>
       </c>
       <c r="M16">
-        <v>4.934755234354498</v>
+        <v>2.288668137211971</v>
       </c>
       <c r="N16">
-        <v>5.330550489035488</v>
+        <v>2.281551294532164</v>
       </c>
       <c r="O16">
-        <v>8.172080158753147</v>
+        <v>7.980134176854733</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.1663789448197548</v>
+        <v>0.3152222452369671</v>
       </c>
       <c r="D17">
-        <v>0.02449408254585261</v>
+        <v>0.07220880884768377</v>
       </c>
       <c r="E17">
-        <v>0.0237100877534262</v>
+        <v>0.1111714296316362</v>
       </c>
       <c r="F17">
-        <v>2.459873083402741</v>
+        <v>2.737868906191665</v>
       </c>
       <c r="G17">
-        <v>0.000759816828231683</v>
+        <v>0.002512346271990773</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.03112238042772297</v>
+        <v>0.1721114204950558</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.05522490200197083</v>
+        <v>0.1012152750111923</v>
       </c>
       <c r="M17">
-        <v>4.734355390432768</v>
+        <v>2.228690365887786</v>
       </c>
       <c r="N17">
-        <v>5.137336132943972</v>
+        <v>2.219212503123686</v>
       </c>
       <c r="O17">
-        <v>7.860471313135008</v>
+        <v>7.935568674099386</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.1639898632285934</v>
+        <v>0.3153445121445202</v>
       </c>
       <c r="D18">
-        <v>0.02451498747662839</v>
+        <v>0.07226473958651614</v>
       </c>
       <c r="E18">
-        <v>0.02411060369567242</v>
+        <v>0.1114738865275167</v>
       </c>
       <c r="F18">
-        <v>2.406835451311082</v>
+        <v>2.731086291700962</v>
       </c>
       <c r="G18">
-        <v>0.0007617725926372728</v>
+        <v>0.002513521598023167</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.031813517319355</v>
+        <v>0.17270938671275</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.05486747757392862</v>
+        <v>0.1011466576275311</v>
       </c>
       <c r="M18">
-        <v>4.619276801786526</v>
+        <v>2.19418993473181</v>
       </c>
       <c r="N18">
-        <v>5.026395218178948</v>
+        <v>2.183377615689096</v>
       </c>
       <c r="O18">
-        <v>7.683659773967008</v>
+        <v>7.91042043187349</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.1631903037042406</v>
+        <v>0.3153887972598426</v>
       </c>
       <c r="D19">
-        <v>0.02452241542865963</v>
+        <v>0.07228384754817885</v>
       </c>
       <c r="E19">
-        <v>0.02424759169306334</v>
+        <v>0.1115770390694466</v>
       </c>
       <c r="F19">
-        <v>2.389003517847499</v>
+        <v>2.728817797635131</v>
       </c>
       <c r="G19">
-        <v>0.0007624363162502104</v>
+        <v>0.002513922324871032</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.03205120345005774</v>
+        <v>0.1729133765657744</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.05474665071998785</v>
+        <v>0.1011236435553009</v>
       </c>
       <c r="M19">
-        <v>4.580343090467281</v>
+        <v>2.1825082842212</v>
       </c>
       <c r="N19">
-        <v>4.988864029495232</v>
+        <v>2.171248214722539</v>
       </c>
       <c r="O19">
-        <v>7.624193921608082</v>
+        <v>7.901988778290217</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.1668256193088524</v>
+        <v>0.3152009886192957</v>
       </c>
       <c r="D20">
-        <v>0.02449038204021292</v>
+        <v>0.07219853841840251</v>
       </c>
       <c r="E20">
-        <v>0.02363662249717002</v>
+        <v>0.1111158059756516</v>
       </c>
       <c r="F20">
-        <v>2.469749997013224</v>
+        <v>2.739137516933837</v>
       </c>
       <c r="G20">
-        <v>0.0007594555736865551</v>
+        <v>0.002512130066069943</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.03099623546379604</v>
+        <v>0.1720014768702827</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.05529114369299748</v>
+        <v>0.101228078179016</v>
       </c>
       <c r="M20">
-        <v>4.755668543199704</v>
+        <v>2.235075412179413</v>
       </c>
       <c r="N20">
-        <v>5.157884068103613</v>
+        <v>2.225846454953967</v>
       </c>
       <c r="O20">
-        <v>7.893388608205498</v>
+        <v>7.940262556846221</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.1797345260848431</v>
+        <v>0.3147712290335107</v>
       </c>
       <c r="D21">
-        <v>0.02440858013507796</v>
+        <v>0.07192377747174206</v>
       </c>
       <c r="E21">
-        <v>0.0216833914063721</v>
+        <v>0.1096180413165533</v>
       </c>
       <c r="F21">
-        <v>2.75050338219117</v>
+        <v>2.77576265558065</v>
       </c>
       <c r="G21">
-        <v>0.0007495375803063808</v>
+        <v>0.00250630124952097</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.02772101950762007</v>
+        <v>0.1690441665193818</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.0571337149474509</v>
+        <v>0.1015940489095115</v>
       </c>
       <c r="M21">
-        <v>5.347122036098853</v>
+        <v>2.411654066136236</v>
       </c>
       <c r="N21">
-        <v>5.728148121151264</v>
+        <v>2.409528392518439</v>
       </c>
       <c r="O21">
-        <v>8.827956837234012</v>
+        <v>8.074657545388334</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.1887455558310336</v>
+        <v>0.3146407954066177</v>
       </c>
       <c r="D22">
-        <v>0.02437630418435432</v>
+        <v>0.07175303311254666</v>
       </c>
       <c r="E22">
-        <v>0.02048542345229309</v>
+        <v>0.1086778963572699</v>
       </c>
       <c r="F22">
-        <v>2.941941191700522</v>
+        <v>2.801161122954596</v>
       </c>
       <c r="G22">
-        <v>0.0007431152956831017</v>
+        <v>0.002502634889816499</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.02579803550387361</v>
+        <v>0.1671910408666815</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.05834760394697369</v>
+        <v>0.1018443317907654</v>
       </c>
       <c r="M22">
-        <v>5.735835745823636</v>
+        <v>2.527014739282123</v>
       </c>
       <c r="N22">
-        <v>6.102858870099226</v>
+        <v>2.529734406474518</v>
       </c>
       <c r="O22">
-        <v>9.4641314848663</v>
+        <v>8.166837892122942</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.1838798019179393</v>
+        <v>0.3146966164077583</v>
       </c>
       <c r="D23">
-        <v>0.02439145613292837</v>
+        <v>0.0718433558717404</v>
       </c>
       <c r="E23">
-        <v>0.0211173154041262</v>
+        <v>0.1091761231038415</v>
       </c>
       <c r="F23">
-        <v>2.838978280635104</v>
+        <v>2.787471289385707</v>
       </c>
       <c r="G23">
-        <v>0.0007465383817948868</v>
+        <v>0.002504578644323269</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.02680331968179317</v>
+        <v>0.1681727858924837</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.05769885232886907</v>
+        <v>0.1017097446340465</v>
       </c>
       <c r="M23">
-        <v>5.528147085158594</v>
+        <v>2.465449475024343</v>
       </c>
       <c r="N23">
-        <v>5.902668743379877</v>
+        <v>2.46556484224908</v>
       </c>
       <c r="O23">
-        <v>9.122069925885512</v>
+        <v>8.117240449054066</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.1666235070526909</v>
+        <v>0.3152105461763597</v>
       </c>
       <c r="D24">
-        <v>0.02449204851229414</v>
+        <v>0.07220317850654823</v>
       </c>
       <c r="E24">
-        <v>0.02366981018139303</v>
+        <v>0.1111409394803569</v>
       </c>
       <c r="F24">
-        <v>2.465282365536126</v>
+        <v>2.738563479682625</v>
       </c>
       <c r="G24">
-        <v>0.0007596188672467886</v>
+        <v>0.002512227760848063</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.03105319652008021</v>
+        <v>0.1720511538049916</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.05526119288235165</v>
+        <v>0.1012222860139964</v>
       </c>
       <c r="M24">
-        <v>4.746032454942167</v>
+        <v>2.232188789884503</v>
       </c>
       <c r="N24">
-        <v>5.14859391201793</v>
+        <v>2.222847230984144</v>
       </c>
       <c r="O24">
-        <v>7.878499462142941</v>
+        <v>7.938138979227858</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.1501239524285864</v>
+        <v>0.3164079263562058</v>
       </c>
       <c r="D25">
-        <v>0.02467969304914863</v>
+        <v>0.07262931251183247</v>
       </c>
       <c r="E25">
-        <v>0.02673295309305979</v>
+        <v>0.1134263611799153</v>
       </c>
       <c r="F25">
-        <v>2.090725294599707</v>
+        <v>2.69204081985275</v>
       </c>
       <c r="G25">
-        <v>0.0007740624044219063</v>
+        <v>0.0025210974476092</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.03646657382916718</v>
+        <v>0.1765750439417122</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.05267421469882194</v>
+        <v>0.1007450643305283</v>
       </c>
       <c r="M25">
-        <v>3.909297488672053</v>
+        <v>1.980482630772514</v>
       </c>
       <c r="N25">
-        <v>4.342355105107458</v>
+        <v>1.961844427852583</v>
       </c>
       <c r="O25">
-        <v>6.627843719568546</v>
+        <v>7.763460335422053</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_108/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_108/res_line/pl_mw.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.3178392843478832</v>
+        <v>0.1394519483219625</v>
       </c>
       <c r="D2">
-        <v>0.072975931845086</v>
+        <v>0.02487532101264467</v>
       </c>
       <c r="E2">
-        <v>0.1152519610375153</v>
+        <v>0.0292280527089015</v>
       </c>
       <c r="F2">
-        <v>2.663086912965028</v>
+        <v>1.834073202039079</v>
       </c>
       <c r="G2">
-        <v>0.002528166556933808</v>
+        <v>0.0007850612102482933</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1801976948892259</v>
+        <v>0.0410645043718656</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.1004363845456098</v>
+        <v>0.05080669861603937</v>
       </c>
       <c r="M2">
-        <v>1.795126779606832</v>
+        <v>3.296787719552484</v>
       </c>
       <c r="N2">
-        <v>1.770456784104312</v>
+        <v>3.753305746477537</v>
       </c>
       <c r="O2">
-        <v>7.650565837941315</v>
+        <v>5.767422451054642</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.3191506642733657</v>
+        <v>0.13299292729738</v>
       </c>
       <c r="D3">
-        <v>0.07323142302829844</v>
+        <v>0.0250395374501009</v>
       </c>
       <c r="E3">
-        <v>0.1165783141418422</v>
+        <v>0.03105661177785435</v>
       </c>
       <c r="F3">
-        <v>2.64674256577392</v>
+        <v>1.669759973595248</v>
       </c>
       <c r="G3">
-        <v>0.00253329629916117</v>
+        <v>0.0007927754086620167</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1828342323282115</v>
+        <v>0.04451829536811136</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1002543018401951</v>
+        <v>0.04956482755274649</v>
       </c>
       <c r="M3">
-        <v>1.669526507629953</v>
+        <v>2.88294134516147</v>
       </c>
       <c r="N3">
-        <v>1.641295309442739</v>
+        <v>3.356284997618673</v>
       </c>
       <c r="O3">
-        <v>7.583767025111797</v>
+        <v>5.214485771044508</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.3201237289109287</v>
+        <v>0.1293652100620903</v>
       </c>
       <c r="D4">
-        <v>0.07339847739880945</v>
+        <v>0.02515481390809038</v>
       </c>
       <c r="E4">
-        <v>0.1174366614359648</v>
+        <v>0.03224361308776724</v>
       </c>
       <c r="F4">
-        <v>2.638315273754941</v>
+        <v>1.572943262222751</v>
       </c>
       <c r="G4">
-        <v>0.002536614178842142</v>
+        <v>0.0007976500098850095</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1845423758235372</v>
+        <v>0.04679240512507299</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1001560439589042</v>
+        <v>0.0488142478676501</v>
       </c>
       <c r="M4">
-        <v>1.592429172857464</v>
+        <v>2.629188288029198</v>
       </c>
       <c r="N4">
-        <v>1.562278028786039</v>
+        <v>3.113398884155799</v>
       </c>
       <c r="O4">
-        <v>7.547513017343249</v>
+        <v>4.887677917627173</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.320562408484804</v>
+        <v>0.1279659898475813</v>
       </c>
       <c r="D5">
-        <v>0.07346911763896991</v>
+        <v>0.02520527044970011</v>
       </c>
       <c r="E5">
-        <v>0.1177974964592072</v>
+        <v>0.03274297306754637</v>
       </c>
       <c r="F5">
-        <v>2.63528441333608</v>
+        <v>1.53442232029002</v>
       </c>
       <c r="G5">
-        <v>0.002538008678222947</v>
+        <v>0.0007996724786818403</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1852608790122128</v>
+        <v>0.04775588975443057</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1001194357085247</v>
+        <v>0.04851142223029825</v>
       </c>
       <c r="M5">
-        <v>1.561019502537576</v>
+        <v>2.525835975437317</v>
       </c>
       <c r="N5">
-        <v>1.530154126625064</v>
+        <v>3.014619888383464</v>
       </c>
       <c r="O5">
-        <v>7.533932754563978</v>
+        <v>4.757397611945635</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.3206377946399215</v>
+        <v>0.1277382628051527</v>
       </c>
       <c r="D6">
-        <v>0.07348100238717947</v>
+        <v>0.02521385478962923</v>
       </c>
       <c r="E6">
-        <v>0.1178580802434017</v>
+        <v>0.03282682206304433</v>
       </c>
       <c r="F6">
-        <v>2.634805470490974</v>
+        <v>1.52807973772218</v>
       </c>
       <c r="G6">
-        <v>0.002538242801178118</v>
+        <v>0.0008000105207886986</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1853815390908151</v>
+        <v>0.0479180451586565</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1001135650670442</v>
+        <v>0.04846132319218199</v>
       </c>
       <c r="M6">
-        <v>1.555804519556489</v>
+        <v>2.508676747553622</v>
       </c>
       <c r="N6">
-        <v>1.524824696000024</v>
+        <v>2.998229085617481</v>
       </c>
       <c r="O6">
-        <v>7.531749745222044</v>
+        <v>4.735931376527674</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.3201294745271497</v>
+        <v>0.1293460269243099</v>
       </c>
       <c r="D7">
-        <v>0.07339941968913166</v>
+        <v>0.02515548047943739</v>
       </c>
       <c r="E7">
-        <v>0.117441483040118</v>
+        <v>0.03225028493014204</v>
       </c>
       <c r="F7">
-        <v>2.638272766872461</v>
+        <v>1.572420094734156</v>
       </c>
       <c r="G7">
-        <v>0.002536632813474708</v>
+        <v>0.0007976771380848451</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1845519750737381</v>
+        <v>0.04680525247351852</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1001555363124425</v>
+        <v>0.0488101514846413</v>
       </c>
       <c r="M7">
-        <v>1.592005534661851</v>
+        <v>2.627794265737194</v>
       </c>
       <c r="N7">
-        <v>1.561844480722954</v>
+        <v>3.112065939744724</v>
       </c>
       <c r="O7">
-        <v>7.547325041364331</v>
+        <v>4.885909558991216</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.3182565665212564</v>
+        <v>0.1371509911593733</v>
       </c>
       <c r="D8">
-        <v>0.0730619143608191</v>
+        <v>0.02492884725903188</v>
       </c>
       <c r="E8">
-        <v>0.1157001618772682</v>
+        <v>0.02984488675153596</v>
       </c>
       <c r="F8">
-        <v>2.657116941621595</v>
+        <v>1.776515537389997</v>
       </c>
       <c r="G8">
-        <v>0.002529900468343256</v>
+        <v>0.0007876932354523485</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1810882187743363</v>
+        <v>0.04222238367531261</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.1003708081892576</v>
+        <v>0.05037604815598584</v>
       </c>
       <c r="M8">
-        <v>1.751816839365901</v>
+        <v>3.153999055259121</v>
       </c>
       <c r="N8">
-        <v>1.725864252790785</v>
+        <v>3.6162138649577</v>
       </c>
       <c r="O8">
-        <v>7.626543305582743</v>
+        <v>5.573948689828057</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.3159189761081507</v>
+        <v>0.1554312851381638</v>
       </c>
       <c r="D9">
-        <v>0.07248067573396089</v>
+        <v>0.02460692753287308</v>
       </c>
       <c r="E9">
-        <v>0.1126343243505568</v>
+        <v>0.0256622021102737</v>
       </c>
       <c r="F9">
-        <v>2.706884802377488</v>
+        <v>2.213589500425712</v>
       </c>
       <c r="G9">
-        <v>0.002518026453715672</v>
+        <v>0.0007691452714948179</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1750057739647204</v>
+        <v>0.03454168431794979</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.100899247335839</v>
+        <v>0.05353991519078605</v>
       </c>
       <c r="M9">
-        <v>2.065278440517147</v>
+        <v>4.190454609146144</v>
       </c>
       <c r="N9">
-        <v>2.049647962062863</v>
+        <v>4.613129062905443</v>
       </c>
       <c r="O9">
-        <v>7.819846092821649</v>
+        <v>7.038655603795462</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.3150202932058761</v>
+        <v>0.1711232262592972</v>
       </c>
       <c r="D10">
-        <v>0.07210253088702601</v>
+        <v>0.02445794011821079</v>
       </c>
       <c r="E10">
-        <v>0.1105945755317401</v>
+        <v>0.02295125524920349</v>
       </c>
       <c r="F10">
-        <v>2.751344950762245</v>
+        <v>2.564185432182285</v>
       </c>
       <c r="G10">
-        <v>0.002510103189029625</v>
+        <v>0.0007560461888640799</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1709716295199426</v>
+        <v>0.02982921916519388</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.1013508132440535</v>
+        <v>0.05591952210498263</v>
       </c>
       <c r="M10">
-        <v>2.295511574237366</v>
+        <v>4.957649073584065</v>
       </c>
       <c r="N10">
-        <v>2.288667306981893</v>
+        <v>5.352624457447803</v>
       </c>
       <c r="O10">
-        <v>7.985285183608937</v>
+        <v>8.207976808751937</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.3147903178363549</v>
+        <v>0.1788658005538508</v>
       </c>
       <c r="D11">
-        <v>0.07194106674031264</v>
+        <v>0.02441268896484416</v>
       </c>
       <c r="E11">
-        <v>0.1097128377549836</v>
+        <v>0.02180547256342269</v>
       </c>
       <c r="F11">
-        <v>2.773304336917562</v>
+        <v>2.731867263069915</v>
       </c>
       <c r="G11">
-        <v>0.00250667059357812</v>
+        <v>0.0007501765009142383</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1692311588027184</v>
+        <v>0.02792093303980892</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.1015696846022109</v>
+        <v>0.05701375311881307</v>
       </c>
       <c r="M11">
-        <v>2.40021427016336</v>
+        <v>5.308679019747501</v>
       </c>
       <c r="N11">
-        <v>2.397616382568685</v>
+        <v>5.691083754688464</v>
       </c>
       <c r="O11">
-        <v>8.065696131948584</v>
+        <v>8.765982843793438</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.3147290339363451</v>
+        <v>0.1818952696130083</v>
       </c>
       <c r="D12">
-        <v>0.0718814385405393</v>
+        <v>0.02439915128168035</v>
       </c>
       <c r="E12">
-        <v>0.1093855869730316</v>
+        <v>0.02138499488614798</v>
       </c>
       <c r="F12">
-        <v>2.781870567931065</v>
+        <v>2.796712342456033</v>
       </c>
       <c r="G12">
-        <v>0.002505395306800095</v>
+        <v>0.0007479642431912256</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1685857411887426</v>
+        <v>0.02723533407146839</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.1016544729611724</v>
+        <v>0.05742977385555292</v>
       </c>
       <c r="M12">
-        <v>2.439855629538101</v>
+        <v>5.441970690931299</v>
       </c>
       <c r="N12">
-        <v>2.438900644764658</v>
+        <v>5.819591668770443</v>
       </c>
       <c r="O12">
-        <v>8.096891178801854</v>
+        <v>8.981589110823961</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.314741083554722</v>
+        <v>0.1812382991011106</v>
       </c>
       <c r="D13">
-        <v>0.07189421321943357</v>
+        <v>0.02440190044573676</v>
       </c>
       <c r="E13">
-        <v>0.1094557706652022</v>
+        <v>0.02147494198159761</v>
       </c>
       <c r="F13">
-        <v>2.780014506379416</v>
+        <v>2.782683936983261</v>
       </c>
       <c r="G13">
-        <v>0.002505668872244717</v>
+        <v>0.0007484402674448119</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.168724135114811</v>
+        <v>0.02738128899757264</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.1016361279198357</v>
+        <v>0.05734010294588998</v>
       </c>
       <c r="M13">
-        <v>2.431318520730912</v>
+        <v>5.413246477589013</v>
       </c>
       <c r="N13">
-        <v>2.430008171035752</v>
+        <v>5.791899274607999</v>
       </c>
       <c r="O13">
-        <v>8.090139556180532</v>
+        <v>8.934953604616226</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.3147847583511094</v>
+        <v>0.1791130169119555</v>
       </c>
       <c r="D14">
-        <v>0.07193613075200211</v>
+        <v>0.02441150082125532</v>
       </c>
       <c r="E14">
-        <v>0.1096857814349279</v>
+        <v>0.02177060590419266</v>
       </c>
       <c r="F14">
-        <v>2.774004054186406</v>
+        <v>2.737174053936741</v>
       </c>
       <c r="G14">
-        <v>0.002506565183287404</v>
+        <v>0.0007499943017276222</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1691777858591816</v>
+        <v>0.02786376689705072</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.1015766221410743</v>
+        <v>0.0570479462853335</v>
       </c>
       <c r="M14">
-        <v>2.403475750188022</v>
+        <v>5.319637253127127</v>
       </c>
       <c r="N14">
-        <v>2.401012331469985</v>
+        <v>5.701649076893091</v>
       </c>
       <c r="O14">
-        <v>8.068247607958313</v>
+        <v>8.78363128614086</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.3148148732767169</v>
+        <v>0.1778242575080355</v>
       </c>
       <c r="D15">
-        <v>0.07196200362600358</v>
+        <v>0.02441786161481119</v>
       </c>
       <c r="E15">
-        <v>0.1098275351587272</v>
+        <v>0.02195348038671474</v>
       </c>
       <c r="F15">
-        <v>2.770355164752004</v>
+        <v>2.7094788168082</v>
       </c>
       <c r="G15">
-        <v>0.002507117394562</v>
+        <v>0.0007509474808389484</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1694574404539555</v>
+        <v>0.02816422070096714</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.1015404205958355</v>
+        <v>0.05686920722155975</v>
       </c>
       <c r="M15">
-        <v>2.386420220221851</v>
+        <v>5.262348665184419</v>
       </c>
       <c r="N15">
-        <v>2.383255028525923</v>
+        <v>5.646414002774861</v>
       </c>
       <c r="O15">
-        <v>8.0549353297896</v>
+        <v>8.691519726083413</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.3150389286610107</v>
+        <v>0.1706302712003236</v>
       </c>
       <c r="D16">
-        <v>0.07211329508836428</v>
+        <v>0.02446137992749264</v>
       </c>
       <c r="E16">
-        <v>0.1106531285268457</v>
+        <v>0.02302796369666327</v>
       </c>
       <c r="F16">
-        <v>2.749944861823963</v>
+        <v>2.553405923428755</v>
       </c>
       <c r="G16">
-        <v>0.002510330961777378</v>
+        <v>0.0007564313857975254</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1710872825134437</v>
+        <v>0.0299589311527555</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.1013367777886387</v>
+        <v>0.05584824514324893</v>
       </c>
       <c r="M16">
-        <v>2.288668137211971</v>
+        <v>4.934755234354526</v>
       </c>
       <c r="N16">
-        <v>2.281551294532164</v>
+        <v>5.330550489035488</v>
       </c>
       <c r="O16">
-        <v>7.980134176854733</v>
+        <v>8.17208015875309</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.3152222452369671</v>
+        <v>0.1663789448195132</v>
       </c>
       <c r="D17">
-        <v>0.07220880884768377</v>
+        <v>0.02449408254585528</v>
       </c>
       <c r="E17">
-        <v>0.1111714296316362</v>
+        <v>0.02371008775344219</v>
       </c>
       <c r="F17">
-        <v>2.737868906191665</v>
+        <v>2.459873083402712</v>
       </c>
       <c r="G17">
-        <v>0.002512346271990773</v>
+        <v>0.0007598168282332884</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1721114204950558</v>
+        <v>0.03112238042778515</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.1012152750111923</v>
+        <v>0.05522490200197439</v>
       </c>
       <c r="M17">
-        <v>2.228690365887786</v>
+        <v>4.734355390432768</v>
       </c>
       <c r="N17">
-        <v>2.219212503123686</v>
+        <v>5.137336132943972</v>
       </c>
       <c r="O17">
-        <v>7.935568674099386</v>
+        <v>7.860471313134951</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.3153445121445202</v>
+        <v>0.1639898632283661</v>
       </c>
       <c r="D18">
-        <v>0.07226473958651614</v>
+        <v>0.02451498747661773</v>
       </c>
       <c r="E18">
-        <v>0.1114738865275167</v>
+        <v>0.0241106036956551</v>
       </c>
       <c r="F18">
-        <v>2.731086291700962</v>
+        <v>2.40683545131111</v>
       </c>
       <c r="G18">
-        <v>0.002513521598023167</v>
+        <v>0.0007617725926335661</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.17270938671275</v>
+        <v>0.03181351731938165</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.1011466576275311</v>
+        <v>0.0548674775739677</v>
       </c>
       <c r="M18">
-        <v>2.19418993473181</v>
+        <v>4.619276801786526</v>
       </c>
       <c r="N18">
-        <v>2.183377615689096</v>
+        <v>5.026395218178777</v>
       </c>
       <c r="O18">
-        <v>7.91042043187349</v>
+        <v>7.683659773967008</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.3153887972598426</v>
+        <v>0.1631903037046811</v>
       </c>
       <c r="D19">
-        <v>0.07228384754817885</v>
+        <v>0.02452241542854772</v>
       </c>
       <c r="E19">
-        <v>0.1115770390694466</v>
+        <v>0.02424759169303403</v>
       </c>
       <c r="F19">
-        <v>2.728817797635131</v>
+        <v>2.389003517847499</v>
       </c>
       <c r="G19">
-        <v>0.002513922324871032</v>
+        <v>0.0007624363163061374</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1729133765657744</v>
+        <v>0.03205120345004886</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.1011236435553009</v>
+        <v>0.05474665072003404</v>
       </c>
       <c r="M19">
-        <v>2.1825082842212</v>
+        <v>4.580343090467252</v>
       </c>
       <c r="N19">
-        <v>2.171248214722539</v>
+        <v>4.988864029495176</v>
       </c>
       <c r="O19">
-        <v>7.901988778290217</v>
+        <v>7.624193921608196</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.3152009886192957</v>
+        <v>0.1668256193090656</v>
       </c>
       <c r="D20">
-        <v>0.07219853841840251</v>
+        <v>0.02449038203998555</v>
       </c>
       <c r="E20">
-        <v>0.1111158059756516</v>
+        <v>0.02363662249719711</v>
       </c>
       <c r="F20">
-        <v>2.739137516933837</v>
+        <v>2.469749997013224</v>
       </c>
       <c r="G20">
-        <v>0.002512130066069943</v>
+        <v>0.0007594555735742061</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1720014768702827</v>
+        <v>0.030996235463844</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.101228078179016</v>
+        <v>0.05529114369294064</v>
       </c>
       <c r="M20">
-        <v>2.235075412179413</v>
+        <v>4.755668543199732</v>
       </c>
       <c r="N20">
-        <v>2.225846454953967</v>
+        <v>5.157884068103726</v>
       </c>
       <c r="O20">
-        <v>7.940262556846221</v>
+        <v>7.893388608205612</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.3147712290335107</v>
+        <v>0.1797345260846441</v>
       </c>
       <c r="D21">
-        <v>0.07192377747174206</v>
+        <v>0.0244085801350753</v>
       </c>
       <c r="E21">
-        <v>0.1096180413165533</v>
+        <v>0.02168339140631126</v>
       </c>
       <c r="F21">
-        <v>2.77576265558065</v>
+        <v>2.750503382191198</v>
       </c>
       <c r="G21">
-        <v>0.00250630124952097</v>
+        <v>0.0007495375802503076</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1690441665193818</v>
+        <v>0.02772101950762185</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.1015940489095115</v>
+        <v>0.0571337149473834</v>
       </c>
       <c r="M21">
-        <v>2.411654066136236</v>
+        <v>5.347122036098938</v>
       </c>
       <c r="N21">
-        <v>2.409528392518439</v>
+        <v>5.728148121151264</v>
       </c>
       <c r="O21">
-        <v>8.074657545388334</v>
+        <v>8.827956837234012</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.3146407954066177</v>
+        <v>0.1887455558312752</v>
       </c>
       <c r="D22">
-        <v>0.07175303311254666</v>
+        <v>0.02437630418435077</v>
       </c>
       <c r="E22">
-        <v>0.1086778963572699</v>
+        <v>0.02048542345226245</v>
       </c>
       <c r="F22">
-        <v>2.801161122954596</v>
+        <v>2.941941191700522</v>
       </c>
       <c r="G22">
-        <v>0.002502634889816499</v>
+        <v>0.000743115295743202</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.1671910408666815</v>
+        <v>0.02579803550387538</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.1018443317907654</v>
+        <v>0.05834760394703054</v>
       </c>
       <c r="M22">
-        <v>2.527014739282123</v>
+        <v>5.735835745823636</v>
       </c>
       <c r="N22">
-        <v>2.529734406474518</v>
+        <v>6.102858870099283</v>
       </c>
       <c r="O22">
-        <v>8.166837892122942</v>
+        <v>9.4641314848663</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.3146966164077583</v>
+        <v>0.1838798019179677</v>
       </c>
       <c r="D23">
-        <v>0.0718433558717404</v>
+        <v>0.02439145613292126</v>
       </c>
       <c r="E23">
-        <v>0.1091761231038415</v>
+        <v>0.02111731540409334</v>
       </c>
       <c r="F23">
-        <v>2.787471289385707</v>
+        <v>2.838978280635132</v>
       </c>
       <c r="G23">
-        <v>0.002504578644323269</v>
+        <v>0.0007465383818529014</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.1681727858924837</v>
+        <v>0.02680331968178074</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.1017097446340465</v>
+        <v>0.05769885232886551</v>
       </c>
       <c r="M23">
-        <v>2.465449475024343</v>
+        <v>5.528147085158622</v>
       </c>
       <c r="N23">
-        <v>2.46556484224908</v>
+        <v>5.90266874337982</v>
       </c>
       <c r="O23">
-        <v>8.117240449054066</v>
+        <v>9.122069925885512</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.3152105461763597</v>
+        <v>0.1666235070529183</v>
       </c>
       <c r="D24">
-        <v>0.07220317850654823</v>
+        <v>0.0244920485119593</v>
       </c>
       <c r="E24">
-        <v>0.1111409394803569</v>
+        <v>0.02366981018139391</v>
       </c>
       <c r="F24">
-        <v>2.738563479682625</v>
+        <v>2.465282365536154</v>
       </c>
       <c r="G24">
-        <v>0.002512227760848063</v>
+        <v>0.000759618867358485</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1720511538049916</v>
+        <v>0.03105319652008198</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.1012222860139964</v>
+        <v>0.05526119288229481</v>
       </c>
       <c r="M24">
-        <v>2.232188789884503</v>
+        <v>4.746032454942195</v>
       </c>
       <c r="N24">
-        <v>2.222847230984144</v>
+        <v>5.148593912018043</v>
       </c>
       <c r="O24">
-        <v>7.938138979227858</v>
+        <v>7.878499462142941</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.3164079263562058</v>
+        <v>0.1501239524285722</v>
       </c>
       <c r="D25">
-        <v>0.07262931251183247</v>
+        <v>0.02467969304914241</v>
       </c>
       <c r="E25">
-        <v>0.1134263611799153</v>
+        <v>0.02673295309305868</v>
       </c>
       <c r="F25">
-        <v>2.69204081985275</v>
+        <v>2.090725294599721</v>
       </c>
       <c r="G25">
-        <v>0.0025210974476092</v>
+        <v>0.0007740624044719018</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1765750439417122</v>
+        <v>0.03646657382921958</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.1007450643305283</v>
+        <v>0.05267421469882194</v>
       </c>
       <c r="M25">
-        <v>1.980482630772514</v>
+        <v>3.909297488672038</v>
       </c>
       <c r="N25">
-        <v>1.961844427852583</v>
+        <v>4.342355105107373</v>
       </c>
       <c r="O25">
-        <v>7.763460335422053</v>
+        <v>6.627843719568489</v>
       </c>
     </row>
   </sheetData>
